--- a/data/trans_camb/Hacinamiento_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.205534327923198</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.484326863520046</v>
+        <v>-2.484326863520049</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.42687624818509</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.99574368393987</v>
+        <v>-2.291576755271078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.277853793296175</v>
+        <v>-2.301527904194497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.100329475712337</v>
+        <v>-5.087568660115662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7536850772623666</v>
+        <v>-0.8430123959778657</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.758341881079688</v>
+        <v>-4.74964096310464</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.199847271486253</v>
+        <v>-5.115200251423983</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5926096496825</v>
+        <v>-0.562064921973502</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.918284677536688</v>
+        <v>-2.912514097035158</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.475325367780339</v>
+        <v>-4.334758255858579</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.992467108115926</v>
+        <v>3.892001888374198</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.233214224503453</v>
+        <v>3.378883855886145</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.133412771526171</v>
+        <v>1.031380454882995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.533232415799842</v>
+        <v>4.512463854029557</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.001831699289883827</v>
+        <v>0.06286792873749994</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3002938161972058</v>
+        <v>0.3381572282901519</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.357348999987692</v>
+        <v>3.418203841590454</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7367412925013094</v>
+        <v>0.7800345266676181</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.3514238732492621</v>
+        <v>-0.1433484585194687</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2592249561003427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2919925180857633</v>
+        <v>-0.2919925180857636</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1788833363990529</v>
@@ -769,7 +769,7 @@
         <v>-0.1282430822032896</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2914673629692973</v>
+        <v>-0.2914673629692972</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.227154745576201</v>
+        <v>-0.2446409862140936</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.256973767810601</v>
+        <v>-0.2615783855638681</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6041364641636974</v>
+        <v>-0.5801695847690541</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08548539421080811</v>
+        <v>-0.08603261749405773</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4717230557486942</v>
+        <v>-0.4681288077581751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5300360239221049</v>
+        <v>-0.5389899110893036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06743679634779866</v>
+        <v>-0.06206353448090439</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3081056385161129</v>
+        <v>-0.3187168522806219</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4955601050388162</v>
+        <v>-0.4870553363300409</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7443263796300436</v>
+        <v>0.7219949541375812</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6075564276485222</v>
+        <v>0.6501674781890158</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2041456447277598</v>
+        <v>0.1978040466778247</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6185597342899637</v>
+        <v>0.6326234089598816</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.008207922899614558</v>
+        <v>0.01317829906796373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07862721974045715</v>
+        <v>0.05527113657716399</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4822022074938977</v>
+        <v>0.5001584842740785</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1117793952726446</v>
+        <v>0.1189796887920217</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.03615517031278408</v>
+        <v>0.005780024501394013</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.194367501597622</v>
+        <v>-3.166069885452921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.180032703203001</v>
+        <v>-4.098044008489112</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.249741453295242</v>
+        <v>-4.296435079955241</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.150674818712639</v>
+        <v>-3.192752926027075</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.664844523971055</v>
+        <v>-4.599131325285038</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.298356865020605</v>
+        <v>-3.976700682490304</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.80462828219499</v>
+        <v>-2.559634188760314</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.92503045077671</v>
+        <v>-3.757335084060594</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.677709780591631</v>
+        <v>-3.627070490164923</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6341407383056167</v>
+        <v>0.5099695481469393</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.4909677693475497</v>
+        <v>-0.4753074833453257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.5980357890588596</v>
+        <v>-0.6587619164700385</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9175158140045863</v>
+        <v>0.9039967426843556</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.7397459997193975</v>
+        <v>-0.7872785806721491</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.3368131262936479</v>
+        <v>-0.4270451532747527</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1944335901849412</v>
+        <v>0.225581037488697</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.309949614536662</v>
+        <v>-1.211635188387891</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.9352358766122325</v>
+        <v>-0.905811526131896</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.523208759294201</v>
+        <v>-0.5368256265876179</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6780132433158835</v>
+        <v>-0.6857511633122737</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7089578391629763</v>
+        <v>-0.7228434536310721</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4332394702737496</v>
+        <v>-0.4307565723282091</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6361158397299529</v>
+        <v>-0.6226144745991984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5729762786101967</v>
+        <v>-0.5567373427647377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4342173192554811</v>
+        <v>-0.3991751596009266</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.601241002121817</v>
+        <v>-0.5796429296821128</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5604608564025967</v>
+        <v>-0.566891565040779</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1758232834306555</v>
+        <v>0.121870651680392</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1003871650235255</v>
+        <v>-0.1022926843685418</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1328466611340589</v>
+        <v>-0.1324655632909632</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1897972779686239</v>
+        <v>0.1769940668004538</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1292069800086976</v>
+        <v>-0.1541165829534451</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.06319324199582679</v>
+        <v>-0.07066332355684667</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04921595681668415</v>
+        <v>0.04737215094504457</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2542674761353448</v>
+        <v>-0.2344328175930817</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1741352184000528</v>
+        <v>-0.1684052615983501</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-1.175917466357801</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-2.391669958938496</v>
+        <v>-2.391669958938497</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.497591622772756</v>
+        <v>-2.733105328897831</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.451977068232839</v>
+        <v>-3.546730286244953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.060574571223443</v>
+        <v>-4.211183150801482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.555588775556723</v>
+        <v>-2.434239290697913</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.473527071217159</v>
+        <v>-2.233778535230805</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.699445697540103</v>
+        <v>-3.818180670881441</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.949979576373976</v>
+        <v>-2.032725236224871</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.430599153668458</v>
+        <v>-2.337980650879309</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.422435250787918</v>
+        <v>-3.491848048855102</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8444631966745353</v>
+        <v>0.9235053206085592</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.02836489347595962</v>
+        <v>-0.2441787337433985</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.9906783234176039</v>
+        <v>-1.213293853830437</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9444938624830042</v>
+        <v>1.082787788312117</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.370487891523032</v>
+        <v>1.357514303741902</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.7270596733257495</v>
+        <v>-0.661659412044057</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4793662054095848</v>
+        <v>0.4255913004819459</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.04030786821376685</v>
+        <v>-0.01367693988615902</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.349227238586276</v>
+        <v>-1.371977337357598</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2907696751531922</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.591389376320902</v>
+        <v>-0.5913893763209022</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.509652790578435</v>
+        <v>-0.5105035464252916</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6996906487748735</v>
+        <v>-0.7086896685016142</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8013312202485995</v>
+        <v>-0.8181568955752431</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5209627232297321</v>
+        <v>-0.5205543151957234</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4876029008317145</v>
+        <v>-0.4717795171039508</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7378614135282876</v>
+        <v>-0.7558266262485419</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4332680138472883</v>
+        <v>-0.4460479737611951</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5305014788353569</v>
+        <v>-0.5161215102114475</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.72577067906224</v>
+        <v>-0.7235785747989134</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.257410349001669</v>
+        <v>0.3047179674065558</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.009916487776137951</v>
+        <v>-0.004354238397291826</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2451429927443936</v>
+        <v>-0.3063235137562909</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3280755345583503</v>
+        <v>0.3996558569876872</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4218779616889735</v>
+        <v>0.471003571508551</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1856021365486294</v>
+        <v>-0.2166696874550203</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1427697550182596</v>
+        <v>0.131027603714484</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.01095298203032563</v>
+        <v>-0.007279553285104669</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3748213511503582</v>
+        <v>-0.3757988825889391</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6453213910382459</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6881989892516673</v>
+        <v>0.688198989251667</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.2630570942658915</v>
@@ -1306,7 +1306,7 @@
         <v>0.07433196284378878</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.3921831287267322</v>
+        <v>-0.3921831287267318</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.103579612841108</v>
+        <v>-2.164712813945252</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.40088064407342</v>
+        <v>-1.676692203760126</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.555372196972362</v>
+        <v>-1.222866441771289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.387347000230781</v>
+        <v>-2.638747808274364</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.666886063151279</v>
+        <v>-3.590481716224274</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.645529081726798</v>
+        <v>-4.414432023319212</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.53989894417845</v>
+        <v>-1.478782501918887</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.562012745005577</v>
+        <v>-1.46632371332366</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.936709993430855</v>
+        <v>-1.979393368157302</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.730400602809194</v>
+        <v>1.750593625662621</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.686778746683286</v>
+        <v>2.706235029475858</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.322346199996875</v>
+        <v>2.273493798519172</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.142183771517177</v>
+        <v>2.866088782936254</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.969442291696695</v>
+        <v>1.747526597194192</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2974422154708002</v>
+        <v>0.05955510661767886</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.732039179317358</v>
+        <v>1.782213146716048</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.884861200995309</v>
+        <v>1.880528113362618</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9973230587746393</v>
+        <v>0.777799997162493</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3159050527865904</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3368949813943813</v>
+        <v>0.3368949813943811</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.06687402327143739</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1876709795728971</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4425761275667007</v>
+        <v>-0.4425761275667006</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.06054159134996764</v>
@@ -1411,7 +1411,7 @@
         <v>0.0259649762246852</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1369939017285503</v>
+        <v>-0.1369939017285502</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6526809008304286</v>
+        <v>-0.6798431106800501</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4851096643854413</v>
+        <v>-0.5298201963323622</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4465354688054522</v>
+        <v>-0.3975223304493667</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4512498784945553</v>
+        <v>-0.473754030407204</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6449371544730654</v>
+        <v>-0.6233788903883186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7359969102602186</v>
+        <v>-0.7195706084974012</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.395525960887634</v>
+        <v>-0.4072420616639637</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4201672501528221</v>
+        <v>-0.4053320785623341</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.481304245249176</v>
+        <v>-0.4907638892836613</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.763241414969694</v>
+        <v>1.649146453713414</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.691499037479135</v>
+        <v>2.585233973890943</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.338630997263214</v>
+        <v>2.461209188017989</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.364312302546102</v>
+        <v>1.252295541019592</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8344176429804542</v>
+        <v>0.8423690653828025</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.154852801236387</v>
+        <v>0.09199394709651723</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8798677917590663</v>
+        <v>0.9767201638469963</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.015229610153463</v>
+        <v>1.013884237115709</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5551166355817893</v>
+        <v>0.3960515471191846</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.4490522879885016</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.012247210149862</v>
+        <v>-2.012247210149863</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.2646110136439186</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.121110457214047</v>
+        <v>-1.077813172870033</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.583699569057737</v>
+        <v>-1.452380349630422</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.045230090882677</v>
+        <v>-2.988104993578625</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.943698694447786</v>
+        <v>-0.9434014600187484</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.582975898027965</v>
+        <v>-2.611707056916452</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.673523506933142</v>
+        <v>-3.671877721769178</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.5822879341221171</v>
+        <v>-0.6572936496553818</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.720921849736708</v>
+        <v>-1.741009688079149</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.999835895090517</v>
+        <v>-3.074333017364953</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.151236145556827</v>
+        <v>1.110549254200988</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6086813913761291</v>
+        <v>0.5947202648269496</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.054660112583367</v>
+        <v>-1.012931275849703</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.396290405652326</v>
+        <v>1.568394968977196</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.3757954807539594</v>
+        <v>-0.3769960216157879</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.716974355270212</v>
+        <v>-1.639247158815604</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9995926869135603</v>
+        <v>0.9935495660263711</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1445704986508261</v>
+        <v>-0.1359969000442598</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.5933908073542</v>
+        <v>-1.580329805149751</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.09527158353598721</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.4269212813403118</v>
+        <v>-0.426921281340312</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.04437912797225978</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2138048383549511</v>
+        <v>-0.203085166162783</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2938380991759555</v>
+        <v>-0.2766708410832308</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5771176064675547</v>
+        <v>-0.5627030340254081</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1447015543221712</v>
+        <v>-0.1437628543823322</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3929369906422318</v>
+        <v>-0.398901656186936</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5565710472150718</v>
+        <v>-0.5516072158521663</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1011960738873963</v>
+        <v>-0.1135185818889819</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3006022727234089</v>
+        <v>-0.2989744522876119</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5270089273942249</v>
+        <v>-0.5280278137100034</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.279685901018529</v>
+        <v>0.2735483945021093</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.148959595743396</v>
+        <v>0.1465191955983637</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2513207043414785</v>
+        <v>-0.23321844995074</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.254170114462846</v>
+        <v>0.2845825310196889</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.06873734052703984</v>
+        <v>-0.07282196667514292</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3103826542516928</v>
+        <v>-0.2799241002530855</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2014653369412529</v>
+        <v>0.2015643794728264</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.02852066475871104</v>
+        <v>-0.02235371182734974</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3288848275576737</v>
+        <v>-0.3289827923618299</v>
       </c>
     </row>
     <row r="34">
